--- a/DATA/CANASTA/CANASTA_LISTADO.xlsx
+++ b/DATA/CANASTA/CANASTA_LISTADO.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OMAR LLAMBO\IPP\IPP 2023\DATA\CANASTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IPP GIT\IPP-2023\DATA\CANASTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241BB6E1-525C-4FE8-92AE-8CD18F4AA5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10632"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANEXO 001 " sheetId="6" r:id="rId1"/>
     <sheet name="ANEXO 002" sheetId="2" r:id="rId2"/>
     <sheet name="ACTUALIZADO" sheetId="7" r:id="rId3"/>
     <sheet name="ANEXO 003" sheetId="3" r:id="rId4"/>
+    <sheet name="MANUFACTURA" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ANEXO 001 '!$A$2:$G$170</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="659">
   <si>
     <t>codigo_actividad_eco</t>
   </si>
@@ -2009,12 +2011,18 @@
   </si>
   <si>
     <t>COD_1</t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>COD_PROD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2039,7 +2047,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2058,8 +2066,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2095,12 +2133,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2119,19 +2168,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2424,32 +2485,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A168"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="103.44140625" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="6" width="5.44140625" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="103.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>483</v>
       </c>
@@ -2495,7 +2557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>481</v>
       </c>
@@ -2518,7 +2580,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>315</v>
       </c>
@@ -2541,7 +2603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>316</v>
       </c>
@@ -2564,7 +2626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>317</v>
       </c>
@@ -2587,7 +2649,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>318</v>
       </c>
@@ -2606,7 +2668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>319</v>
       </c>
@@ -2627,7 +2689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>320</v>
       </c>
@@ -2650,7 +2712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>321</v>
       </c>
@@ -2671,7 +2733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>322</v>
       </c>
@@ -2692,7 +2754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>323</v>
       </c>
@@ -2715,7 +2777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>324</v>
       </c>
@@ -2738,7 +2800,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>325</v>
       </c>
@@ -2761,7 +2823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>326</v>
       </c>
@@ -2784,7 +2846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>327</v>
       </c>
@@ -2807,7 +2869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>328</v>
       </c>
@@ -2830,7 +2892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>329</v>
       </c>
@@ -2853,7 +2915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>330</v>
       </c>
@@ -2876,7 +2938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>331</v>
       </c>
@@ -2895,7 +2957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>332</v>
       </c>
@@ -2918,7 +2980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>333</v>
       </c>
@@ -2941,7 +3003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>334</v>
       </c>
@@ -2962,7 +3024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>335</v>
       </c>
@@ -2983,7 +3045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>336</v>
       </c>
@@ -3006,7 +3068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>337</v>
       </c>
@@ -3027,7 +3089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>338</v>
       </c>
@@ -3044,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>339</v>
       </c>
@@ -3067,7 +3129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>340</v>
       </c>
@@ -3084,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>341</v>
       </c>
@@ -3107,7 +3169,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>342</v>
       </c>
@@ -3130,7 +3192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>343</v>
       </c>
@@ -3153,7 +3215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>344</v>
       </c>
@@ -3176,7 +3238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>345</v>
       </c>
@@ -3199,7 +3261,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>346</v>
       </c>
@@ -3222,7 +3284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>347</v>
       </c>
@@ -3245,7 +3307,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>348</v>
       </c>
@@ -3268,7 +3330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>349</v>
       </c>
@@ -3291,7 +3353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>350</v>
       </c>
@@ -3310,7 +3372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>351</v>
       </c>
@@ -3331,7 +3393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>352</v>
       </c>
@@ -3352,7 +3414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>353</v>
       </c>
@@ -3375,7 +3437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>354</v>
       </c>
@@ -3398,7 +3460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>355</v>
       </c>
@@ -3421,7 +3483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>356</v>
       </c>
@@ -3444,7 +3506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>357</v>
       </c>
@@ -3467,7 +3529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>358</v>
       </c>
@@ -3490,7 +3552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>359</v>
       </c>
@@ -3513,7 +3575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>360</v>
       </c>
@@ -3534,7 +3596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>361</v>
       </c>
@@ -3555,7 +3617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>362</v>
       </c>
@@ -3578,7 +3640,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>363</v>
       </c>
@@ -3601,7 +3663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>364</v>
       </c>
@@ -3622,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>365</v>
       </c>
@@ -3643,7 +3705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>366</v>
       </c>
@@ -3666,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>367</v>
       </c>
@@ -3685,7 +3747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>368</v>
       </c>
@@ -3706,7 +3768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>369</v>
       </c>
@@ -3729,7 +3791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>370</v>
       </c>
@@ -3746,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>371</v>
       </c>
@@ -3769,7 +3831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>372</v>
       </c>
@@ -3792,7 +3854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>373</v>
       </c>
@@ -3815,7 +3877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>374</v>
       </c>
@@ -3836,7 +3898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>375</v>
       </c>
@@ -3859,7 +3921,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>376</v>
       </c>
@@ -3882,7 +3944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>377</v>
       </c>
@@ -3905,7 +3967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>378</v>
       </c>
@@ -3926,7 +3988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>379</v>
       </c>
@@ -3945,7 +4007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>380</v>
       </c>
@@ -3968,7 +4030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>381</v>
       </c>
@@ -3991,7 +4053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>382</v>
       </c>
@@ -4014,7 +4076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>383</v>
       </c>
@@ -4035,7 +4097,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>384</v>
       </c>
@@ -4058,7 +4120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>385</v>
       </c>
@@ -4079,7 +4141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>386</v>
       </c>
@@ -4100,7 +4162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>387</v>
       </c>
@@ -4123,7 +4185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>388</v>
       </c>
@@ -4146,7 +4208,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>389</v>
       </c>
@@ -4169,7 +4231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>390</v>
       </c>
@@ -4190,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>391</v>
       </c>
@@ -4209,7 +4271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>392</v>
       </c>
@@ -4228,7 +4290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>393</v>
       </c>
@@ -4247,7 +4309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>394</v>
       </c>
@@ -4268,7 +4330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>395</v>
       </c>
@@ -4291,7 +4353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>396</v>
       </c>
@@ -4314,7 +4376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>397</v>
       </c>
@@ -4337,7 +4399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>398</v>
       </c>
@@ -4360,7 +4422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>399</v>
       </c>
@@ -4381,7 +4443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>400</v>
       </c>
@@ -4404,7 +4466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>401</v>
       </c>
@@ -4421,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>402</v>
       </c>
@@ -4440,7 +4502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>403</v>
       </c>
@@ -4459,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>404</v>
       </c>
@@ -4482,7 +4544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>405</v>
       </c>
@@ -4501,7 +4563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>406</v>
       </c>
@@ -4524,7 +4586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>407</v>
       </c>
@@ -4545,7 +4607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>408</v>
       </c>
@@ -4568,7 +4630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>409</v>
       </c>
@@ -4591,7 +4653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>410</v>
       </c>
@@ -4614,7 +4676,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>411</v>
       </c>
@@ -4637,7 +4699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>412</v>
       </c>
@@ -4658,7 +4720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>413</v>
       </c>
@@ -4677,7 +4739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>414</v>
       </c>
@@ -4700,7 +4762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>415</v>
       </c>
@@ -4723,7 +4785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>416</v>
       </c>
@@ -4742,7 +4804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>417</v>
       </c>
@@ -4765,7 +4827,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>418</v>
       </c>
@@ -4788,7 +4850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>419</v>
       </c>
@@ -4811,7 +4873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>420</v>
       </c>
@@ -4830,7 +4892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>421</v>
       </c>
@@ -4853,7 +4915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>422</v>
       </c>
@@ -4872,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>423</v>
       </c>
@@ -4889,7 +4951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>424</v>
       </c>
@@ -4912,7 +4974,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>425</v>
       </c>
@@ -4931,7 +4993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>426</v>
       </c>
@@ -4954,7 +5016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>427</v>
       </c>
@@ -4977,7 +5039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>428</v>
       </c>
@@ -4996,7 +5058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>429</v>
       </c>
@@ -5017,7 +5079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>430</v>
       </c>
@@ -5036,7 +5098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>431</v>
       </c>
@@ -5059,7 +5121,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>432</v>
       </c>
@@ -5082,7 +5144,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>433</v>
       </c>
@@ -5105,7 +5167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>434</v>
       </c>
@@ -5126,7 +5188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>435</v>
       </c>
@@ -5149,7 +5211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>436</v>
       </c>
@@ -5168,7 +5230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>437</v>
       </c>
@@ -5187,7 +5249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>438</v>
       </c>
@@ -5208,7 +5270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>439</v>
       </c>
@@ -5231,7 +5293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>440</v>
       </c>
@@ -5250,7 +5312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>441</v>
       </c>
@@ -5269,7 +5331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>442</v>
       </c>
@@ -5288,7 +5350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>443</v>
       </c>
@@ -5305,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>444</v>
       </c>
@@ -5324,7 +5386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>445</v>
       </c>
@@ -5345,7 +5407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>446</v>
       </c>
@@ -5366,7 +5428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>447</v>
       </c>
@@ -5389,7 +5451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>448</v>
       </c>
@@ -5412,7 +5474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>449</v>
       </c>
@@ -5435,7 +5497,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>450</v>
       </c>
@@ -5456,7 +5518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>451</v>
       </c>
@@ -5477,7 +5539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>452</v>
       </c>
@@ -5500,7 +5562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>453</v>
       </c>
@@ -5523,7 +5585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>454</v>
       </c>
@@ -5542,7 +5604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>455</v>
       </c>
@@ -5565,7 +5627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>456</v>
       </c>
@@ -5588,7 +5650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>457</v>
       </c>
@@ -5611,7 +5673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>458</v>
       </c>
@@ -5632,7 +5694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>459</v>
       </c>
@@ -5653,7 +5715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -5672,7 +5734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>461</v>
       </c>
@@ -5691,7 +5753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>462</v>
       </c>
@@ -5714,7 +5776,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>463</v>
       </c>
@@ -5733,7 +5795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>464</v>
       </c>
@@ -5756,7 +5818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>465</v>
       </c>
@@ -5775,7 +5837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>466</v>
       </c>
@@ -5798,7 +5860,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>467</v>
       </c>
@@ -5821,7 +5883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>468</v>
       </c>
@@ -5844,7 +5906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>469</v>
       </c>
@@ -5867,7 +5929,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>470</v>
       </c>
@@ -5890,7 +5952,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>471</v>
       </c>
@@ -5913,7 +5975,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>472</v>
       </c>
@@ -5936,7 +5998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>473</v>
       </c>
@@ -5959,7 +6021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>474</v>
       </c>
@@ -5980,7 +6042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>475</v>
       </c>
@@ -6003,7 +6065,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>476</v>
       </c>
@@ -6026,7 +6088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>477</v>
       </c>
@@ -6049,7 +6111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>478</v>
       </c>
@@ -6072,7 +6134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>479</v>
       </c>
@@ -6091,7 +6153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>480</v>
       </c>
@@ -6110,34 +6172,169 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3">
         <f>SUBTOTAL(9,C3:C170)</f>
-        <v>3985</v>
+        <v>2281</v>
       </c>
       <c r="D171" s="3">
         <f>SUBTOTAL(9,D3:D170)</f>
-        <v>680</v>
+        <v>461</v>
       </c>
       <c r="E171" s="3">
         <f>SUBTOTAL(9,E3:E170)</f>
-        <v>498</v>
+        <v>341</v>
       </c>
       <c r="F171" s="3">
         <f>SUBTOTAL(9,F3:F170)</f>
-        <v>802</v>
+        <v>602</v>
       </c>
       <c r="G171" s="3">
         <f>SUBTOTAL(9,G3:G170)</f>
-        <v>5965</v>
+        <v>3685</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G170"/>
+  <autoFilter ref="A2:G170" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="C1010.11"/>
+        <filter val="C1010.12"/>
+        <filter val="C1010.22"/>
+        <filter val="C1020.01"/>
+        <filter val="C1020.02"/>
+        <filter val="C1020.04"/>
+        <filter val="C1020.06"/>
+        <filter val="C1030.12"/>
+        <filter val="C1030.13"/>
+        <filter val="C1030.14"/>
+        <filter val="C1030.15"/>
+        <filter val="C1030.16"/>
+        <filter val="C1030.17"/>
+        <filter val="C1040.11"/>
+        <filter val="C1040.13"/>
+        <filter val="C1040.22"/>
+        <filter val="C1050.01"/>
+        <filter val="C1050.02"/>
+        <filter val="C1050.04"/>
+        <filter val="C1050.05"/>
+        <filter val="C1050.09"/>
+        <filter val="C1061.11"/>
+        <filter val="C1061.12"/>
+        <filter val="C1061.21"/>
+        <filter val="C1071.01"/>
+        <filter val="C1071.02"/>
+        <filter val="C1071.09"/>
+        <filter val="C1072.02"/>
+        <filter val="C1073.11"/>
+        <filter val="C1073.12"/>
+        <filter val="C1073.21"/>
+        <filter val="C1074.01"/>
+        <filter val="C1079.11"/>
+        <filter val="C1079.31"/>
+        <filter val="C1079.32"/>
+        <filter val="C1079.34"/>
+        <filter val="C1079.94"/>
+        <filter val="C1079.99"/>
+        <filter val="C1080.01"/>
+        <filter val="C1080.02"/>
+        <filter val="C1101.01"/>
+        <filter val="C1101.02"/>
+        <filter val="C1101.03"/>
+        <filter val="C1102.01"/>
+        <filter val="C1103.01"/>
+        <filter val="C1104.01"/>
+        <filter val="C1104.02"/>
+        <filter val="C1200.01"/>
+        <filter val="C1311.02"/>
+        <filter val="C1312.01"/>
+        <filter val="C1392.01"/>
+        <filter val="C1392.03"/>
+        <filter val="C1410.02"/>
+        <filter val="C1410.03"/>
+        <filter val="C1410.05"/>
+        <filter val="C1430.02"/>
+        <filter val="C1511.01"/>
+        <filter val="C1520.01"/>
+        <filter val="C1610.01"/>
+        <filter val="C1621.01"/>
+        <filter val="C1622.02"/>
+        <filter val="C1702.02"/>
+        <filter val="C1709.11"/>
+        <filter val="C1709.12"/>
+        <filter val="C1709.24"/>
+        <filter val="C1811.04"/>
+        <filter val="C1811.06"/>
+        <filter val="C1920.01"/>
+        <filter val="C1920.02"/>
+        <filter val="C1920.03"/>
+        <filter val="C1920.09"/>
+        <filter val="C2011.12"/>
+        <filter val="C2011.19"/>
+        <filter val="C2012.01"/>
+        <filter val="C2013.11"/>
+        <filter val="C2021.01"/>
+        <filter val="C2021.09"/>
+        <filter val="C2022.01"/>
+        <filter val="C2022.03"/>
+        <filter val="C2022.04"/>
+        <filter val="C2022.05"/>
+        <filter val="C2023.11"/>
+        <filter val="C2023.22"/>
+        <filter val="C2023.31"/>
+        <filter val="C2023.39"/>
+        <filter val="C2029.12"/>
+        <filter val="C2029.91"/>
+        <filter val="C2100.01"/>
+        <filter val="C2100.05"/>
+        <filter val="C2211.01"/>
+        <filter val="C2219.04"/>
+        <filter val="C2220.11"/>
+        <filter val="C2220.12"/>
+        <filter val="C2220.23"/>
+        <filter val="C2220.91"/>
+        <filter val="C2220.92"/>
+        <filter val="C2310.11"/>
+        <filter val="C2310.21"/>
+        <filter val="C2391.01"/>
+        <filter val="C2392.03"/>
+        <filter val="C2394.01"/>
+        <filter val="C2395.01"/>
+        <filter val="C2395.03"/>
+        <filter val="C2395.04"/>
+        <filter val="C2399.04"/>
+        <filter val="C2410.24"/>
+        <filter val="C2410.25"/>
+        <filter val="C2420.24"/>
+        <filter val="C2511.01"/>
+        <filter val="C2511.03"/>
+        <filter val="C2512.01"/>
+        <filter val="C2512.02"/>
+        <filter val="C2599.11"/>
+        <filter val="C2599.13"/>
+        <filter val="C2599.21"/>
+        <filter val="C2640.02"/>
+        <filter val="C2710.11"/>
+        <filter val="C2720.02"/>
+        <filter val="C2732.01"/>
+        <filter val="C2750.01"/>
+        <filter val="C2750.02"/>
+        <filter val="C2750.03"/>
+        <filter val="C2813.02"/>
+        <filter val="C2910.01"/>
+        <filter val="C2920.01"/>
+        <filter val="C2930.01"/>
+        <filter val="C3100.01"/>
+        <filter val="C3100.02"/>
+        <filter val="C3100.05"/>
+        <filter val="C3250.24"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
@@ -6147,356 +6344,356 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -6508,2210 +6705,2210 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="11"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <f>LEN(A2)</f>
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="11" t="str">
         <f>LEFT(A2,1)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <f t="shared" ref="B3:B66" si="0">LEN(A3)</f>
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="str">
+      <c r="C3" s="11" t="str">
         <f t="shared" ref="C3:C66" si="1">LEFT(A3,1)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="str">
+      <c r="C4" s="11" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="str">
+      <c r="C5" s="11" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C6" s="12" t="str">
+      <c r="C6" s="11" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="str">
+      <c r="C7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="str">
+      <c r="C8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="str">
+      <c r="C9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="str">
+      <c r="C10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="str">
+      <c r="C11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="str">
+      <c r="C12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="12" t="str">
+      <c r="C13" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="12" t="str">
+      <c r="C14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C15" s="12" t="str">
+      <c r="C15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="12" t="str">
+      <c r="C16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C17" s="12" t="str">
+      <c r="C17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C18" s="12" t="str">
+      <c r="C18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="12" t="str">
+      <c r="C19" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C20" s="12" t="str">
+      <c r="C20" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C21" s="12" t="str">
+      <c r="C21" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C22" s="12" t="str">
+      <c r="C22" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C23" s="12" t="str">
+      <c r="C23" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C24" s="12" t="str">
+      <c r="C24" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C25" s="12" t="str">
+      <c r="C25" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="12" t="str">
+      <c r="C26" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C27" s="12" t="str">
+      <c r="C27" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C28" s="12" t="str">
+      <c r="C28" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C29" s="12" t="str">
+      <c r="C29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C30" s="12" t="str">
+      <c r="C30" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C31" s="12" t="str">
+      <c r="C31" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C32" s="12" t="str">
+      <c r="C32" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C33" s="12" t="str">
+      <c r="C33" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C34" s="12" t="str">
+      <c r="C34" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C35" s="12" t="str">
+      <c r="C35" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C36" s="12" t="str">
+      <c r="C36" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C37" s="12" t="str">
+      <c r="C37" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C38" s="12" t="str">
+      <c r="C38" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C39" s="12" t="str">
+      <c r="C39" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C40" s="12" t="str">
+      <c r="C40" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C41" s="12" t="str">
+      <c r="C41" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C42" s="12" t="str">
+      <c r="C42" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C43" s="12" t="str">
+      <c r="C43" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C44" s="12" t="str">
+      <c r="C44" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C45" s="12" t="str">
+      <c r="C45" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C46" s="12" t="str">
+      <c r="C46" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C47" s="12" t="str">
+      <c r="C47" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C48" s="12" t="str">
+      <c r="C48" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C49" s="12" t="str">
+      <c r="C49" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C50" s="12" t="str">
+      <c r="C50" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C51" s="12" t="str">
+      <c r="C51" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C52" s="12" t="str">
+      <c r="C52" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C53" s="12" t="str">
+      <c r="C53" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C54" s="12" t="str">
+      <c r="C54" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C55" s="12" t="str">
+      <c r="C55" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C56" s="12" t="str">
+      <c r="C56" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C57" s="12" t="str">
+      <c r="C57" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C58" s="12" t="str">
+      <c r="C58" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C59" s="12" t="str">
+      <c r="C59" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C60" s="12" t="str">
+      <c r="C60" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C61" s="12" t="str">
+      <c r="C61" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C62" s="12" t="str">
+      <c r="C62" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C63" s="12" t="str">
+      <c r="C63" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C64" s="12" t="str">
+      <c r="C64" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C65" s="12" t="str">
+      <c r="C65" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C66" s="12" t="str">
+      <c r="C66" s="11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="11">
         <f t="shared" ref="B67:B130" si="2">LEN(A67)</f>
         <v>7</v>
       </c>
-      <c r="C67" s="12" t="str">
+      <c r="C67" s="11" t="str">
         <f t="shared" ref="C67:C130" si="3">LEFT(A67,1)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C68" s="12" t="str">
+      <c r="C68" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C69" s="12" t="str">
+      <c r="C69" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C70" s="12" t="str">
+      <c r="C70" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C71" s="12" t="str">
+      <c r="C71" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C72" s="12" t="str">
+      <c r="C72" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C73" s="12" t="str">
+      <c r="C73" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C74" s="12" t="str">
+      <c r="C74" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="12" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C75" s="12" t="str">
+      <c r="C75" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C76" s="12" t="str">
+      <c r="C76" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C77" s="12" t="str">
+      <c r="C77" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C78" s="12" t="str">
+      <c r="C78" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C79" s="12" t="str">
+      <c r="C79" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B80" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C80" s="12" t="str">
+      <c r="C80" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B81" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C81" s="12" t="str">
+      <c r="C81" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C82" s="12" t="str">
+      <c r="C82" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C83" s="12" t="str">
+      <c r="C83" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="B84" s="12">
+      <c r="B84" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C84" s="12" t="str">
+      <c r="C84" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C85" s="12" t="str">
+      <c r="C85" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B86" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C86" s="12" t="str">
+      <c r="C86" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C87" s="12" t="str">
+      <c r="C87" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B88" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C88" s="12" t="str">
+      <c r="C88" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C89" s="12" t="str">
+      <c r="C89" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B90" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C90" s="12" t="str">
+      <c r="C90" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C91" s="12" t="str">
+      <c r="C91" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="B92" s="12">
+      <c r="B92" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C92" s="12" t="str">
+      <c r="C92" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="B93" s="12">
+      <c r="B93" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C93" s="12" t="str">
+      <c r="C93" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="B94" s="12">
+      <c r="B94" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C94" s="12" t="str">
+      <c r="C94" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="B95" s="12">
+      <c r="B95" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C95" s="12" t="str">
+      <c r="C95" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="B96" s="12">
+      <c r="B96" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C96" s="12" t="str">
+      <c r="C96" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C97" s="12" t="str">
+      <c r="C97" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B98" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C98" s="12" t="str">
+      <c r="C98" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="12" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="B99" s="12">
+      <c r="B99" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C99" s="12" t="str">
+      <c r="C99" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B100" s="12">
+      <c r="B100" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C100" s="12" t="str">
+      <c r="C100" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="B101" s="12">
+      <c r="B101" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C101" s="12" t="str">
+      <c r="C101" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="12" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="B102" s="12">
+      <c r="B102" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C102" s="12" t="str">
+      <c r="C102" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="12" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="B103" s="12">
+      <c r="B103" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C103" s="12" t="str">
+      <c r="C103" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="B104" s="12">
+      <c r="B104" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C104" s="12" t="str">
+      <c r="C104" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="B105" s="12">
+      <c r="B105" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C105" s="12" t="str">
+      <c r="C105" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="B106" s="12">
+      <c r="B106" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C106" s="12" t="str">
+      <c r="C106" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C107" s="12" t="str">
+      <c r="C107" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="12" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C108" s="12" t="str">
+      <c r="C108" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C109" s="12" t="str">
+      <c r="C109" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="12" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="B110" s="12">
+      <c r="B110" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C110" s="12" t="str">
+      <c r="C110" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="12" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="B111" s="12">
+      <c r="B111" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C111" s="12" t="str">
+      <c r="C111" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="12" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="B112" s="12">
+      <c r="B112" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C112" s="12" t="str">
+      <c r="C112" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="B113" s="12">
+      <c r="B113" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C113" s="12" t="str">
+      <c r="C113" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="B114" s="12">
+      <c r="B114" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C114" s="12" t="str">
+      <c r="C114" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="12" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="B115" s="12">
+      <c r="B115" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C115" s="12" t="str">
+      <c r="C115" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="B116" s="12">
+      <c r="B116" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C116" s="12" t="str">
+      <c r="C116" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B117" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C117" s="12" t="str">
+      <c r="C117" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="B118" s="12">
+      <c r="B118" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C118" s="12" t="str">
+      <c r="C118" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="B119" s="12">
+      <c r="B119" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C119" s="12" t="str">
+      <c r="C119" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="12" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="B120" s="12">
+      <c r="B120" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C120" s="12" t="str">
+      <c r="C120" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="B121" s="12">
+      <c r="B121" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C121" s="12" t="str">
+      <c r="C121" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B122" s="12">
+      <c r="B122" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C122" s="12" t="str">
+      <c r="C122" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="B123" s="12">
+      <c r="B123" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C123" s="12" t="str">
+      <c r="C123" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="B124" s="12">
+      <c r="B124" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C124" s="12" t="str">
+      <c r="C124" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="B125" s="12">
+      <c r="B125" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C125" s="12" t="str">
+      <c r="C125" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="B126" s="12">
+      <c r="B126" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C126" s="12" t="str">
+      <c r="C126" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="B127" s="12">
+      <c r="B127" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C127" s="12" t="str">
+      <c r="C127" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="B128" s="12">
+      <c r="B128" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C128" s="12" t="str">
+      <c r="C128" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="B129" s="12">
+      <c r="B129" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C129" s="12" t="str">
+      <c r="C129" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="B130" s="12">
+      <c r="B130" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C130" s="12" t="str">
+      <c r="C130" s="11" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="12" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="B131" s="12">
+      <c r="B131" s="11">
         <f t="shared" ref="B131:B169" si="4">LEN(A131)</f>
         <v>7</v>
       </c>
-      <c r="C131" s="12" t="str">
+      <c r="C131" s="11" t="str">
         <f t="shared" ref="C131:C169" si="5">LEFT(A131,1)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="B132" s="12">
+      <c r="B132" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C132" s="12" t="str">
+      <c r="C132" s="11" t="str">
         <f t="shared" si="5"/>
         <v>C</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="12" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="B133" s="12">
+      <c r="B133" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C133" s="12" t="str">
+      <c r="C133" s="11" t="str">
         <f t="shared" si="5"/>
         <v>C</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="12" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="B134" s="12">
+      <c r="B134" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C134" s="12" t="str">
+      <c r="C134" s="11" t="str">
         <f t="shared" si="5"/>
         <v>C</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="12" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="B135" s="12">
+      <c r="B135" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C135" s="12" t="str">
+      <c r="C135" s="11" t="str">
         <f t="shared" si="5"/>
         <v>C</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="12" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="B136" s="12">
+      <c r="B136" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C136" s="12" t="str">
+      <c r="C136" s="11" t="str">
         <f t="shared" si="5"/>
         <v>C</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="12" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="B137" s="12">
+      <c r="B137" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C137" s="12" t="str">
+      <c r="C137" s="11" t="str">
         <f t="shared" si="5"/>
         <v>C</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B138" s="12">
+      <c r="B138" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C138" s="12" t="str">
+      <c r="C138" s="11" t="str">
         <f t="shared" si="5"/>
         <v>C</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="12" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="B139" s="12">
+      <c r="B139" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C139" s="12" t="str">
+      <c r="C139" s="11" t="str">
         <f t="shared" si="5"/>
         <v>C</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="12" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="B140" s="12">
+      <c r="B140" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C140" s="12" t="str">
+      <c r="C140" s="11" t="str">
         <f t="shared" si="5"/>
         <v>C</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="12" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="B141" s="12">
+      <c r="B141" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C141" s="12" t="str">
+      <c r="C141" s="11" t="str">
         <f t="shared" si="5"/>
         <v>C</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="12" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="B142" s="12">
+      <c r="B142" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C142" s="12" t="str">
+      <c r="C142" s="11" t="str">
         <f t="shared" si="5"/>
         <v>E</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="12" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="B143" s="12">
+      <c r="B143" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C143" s="12" t="str">
+      <c r="C143" s="11" t="str">
         <f t="shared" si="5"/>
         <v>G</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="12" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="B144" s="12">
+      <c r="B144" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C144" s="12" t="str">
+      <c r="C144" s="11" t="str">
         <f t="shared" si="5"/>
         <v>H</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="12" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="B145" s="12">
+      <c r="B145" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C145" s="12" t="str">
+      <c r="C145" s="11" t="str">
         <f t="shared" si="5"/>
         <v>H</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="12" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="B146" s="12">
+      <c r="B146" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C146" s="12" t="str">
+      <c r="C146" s="11" t="str">
         <f t="shared" si="5"/>
         <v>H</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="B147" s="12">
+      <c r="B147" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C147" s="12" t="str">
+      <c r="C147" s="11" t="str">
         <f t="shared" si="5"/>
         <v>I</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="12" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="B148" s="12">
+      <c r="B148" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C148" s="12" t="str">
+      <c r="C148" s="11" t="str">
         <f t="shared" si="5"/>
         <v>I</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="12" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="B149" s="12">
+      <c r="B149" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C149" s="12" t="str">
+      <c r="C149" s="11" t="str">
         <f t="shared" si="5"/>
         <v>J</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="12" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="B150" s="12">
+      <c r="B150" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C150" s="12" t="str">
+      <c r="C150" s="11" t="str">
         <f t="shared" si="5"/>
         <v>J</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="12" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="B151" s="12">
+      <c r="B151" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C151" s="12" t="str">
+      <c r="C151" s="11" t="str">
         <f t="shared" si="5"/>
         <v>J</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="12" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="B152" s="12">
+      <c r="B152" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C152" s="12" t="str">
+      <c r="C152" s="11" t="str">
         <f t="shared" si="5"/>
         <v>J</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="12" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="B153" s="12">
+      <c r="B153" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C153" s="12" t="str">
+      <c r="C153" s="11" t="str">
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="12" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="B154" s="12">
+      <c r="B154" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C154" s="12" t="str">
+      <c r="C154" s="11" t="str">
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="12" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="B155" s="12">
+      <c r="B155" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C155" s="12" t="str">
+      <c r="C155" s="11" t="str">
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="12" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="B156" s="12">
+      <c r="B156" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C156" s="12" t="str">
+      <c r="C156" s="11" t="str">
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="12" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="B157" s="12">
+      <c r="B157" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C157" s="12" t="str">
+      <c r="C157" s="11" t="str">
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="12" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="B158" s="12">
+      <c r="B158" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C158" s="12" t="str">
+      <c r="C158" s="11" t="str">
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="12" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="B159" s="12">
+      <c r="B159" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C159" s="12" t="str">
+      <c r="C159" s="11" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="12" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="B160" s="12">
+      <c r="B160" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C160" s="12" t="str">
+      <c r="C160" s="11" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="12" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="B161" s="12">
+      <c r="B161" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C161" s="12" t="str">
+      <c r="C161" s="11" t="str">
         <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="12" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="B162" s="12">
+      <c r="B162" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C162" s="12" t="str">
+      <c r="C162" s="11" t="str">
         <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="12" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="B163" s="12">
+      <c r="B163" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C163" s="12" t="str">
+      <c r="C163" s="11" t="str">
         <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="12" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="B164" s="12">
+      <c r="B164" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C164" s="12" t="str">
+      <c r="C164" s="11" t="str">
         <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="12" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="B165" s="12">
+      <c r="B165" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C165" s="12" t="str">
+      <c r="C165" s="11" t="str">
         <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="12" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="B166" s="12">
+      <c r="B166" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C166" s="12" t="str">
+      <c r="C166" s="11" t="str">
         <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="12" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="B167" s="12">
+      <c r="B167" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C167" s="12" t="str">
+      <c r="C167" s="11" t="str">
         <f t="shared" si="5"/>
         <v>P</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="12" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="B168" s="12">
+      <c r="B168" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C168" s="12" t="str">
+      <c r="C168" s="11" t="str">
         <f t="shared" si="5"/>
         <v>P</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="12" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="B169" s="12">
+      <c r="B169" s="11">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C169" s="12" t="str">
+      <c r="C169" s="11" t="str">
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
@@ -8722,16 +8919,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
@@ -8739,7 +8936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -8747,7 +8944,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -8755,7 +8952,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -8763,7 +8960,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -8771,7 +8968,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -8779,7 +8976,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -8787,7 +8984,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -8795,7 +8992,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -8803,7 +9000,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -8811,7 +9008,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -8819,7 +9016,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -8827,7 +9024,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
@@ -8835,7 +9032,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
@@ -8843,7 +9040,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -8851,7 +9048,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>90</v>
       </c>
@@ -8859,7 +9056,7 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
@@ -8867,7 +9064,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -8875,7 +9072,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
@@ -8883,7 +9080,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>94</v>
       </c>
@@ -8891,7 +9088,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>95</v>
       </c>
@@ -8899,7 +9096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -8907,7 +9104,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -8915,7 +9112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -8923,7 +9120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
@@ -8931,7 +9128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
@@ -8939,7 +9136,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -8947,7 +9144,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -8955,7 +9152,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>103</v>
       </c>
@@ -8963,7 +9160,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -8971,7 +9168,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>105</v>
       </c>
@@ -8979,7 +9176,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>106</v>
       </c>
@@ -8987,7 +9184,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -8995,7 +9192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>108</v>
       </c>
@@ -9003,7 +9200,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>109</v>
       </c>
@@ -9011,7 +9208,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>110</v>
       </c>
@@ -9019,7 +9216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
@@ -9027,7 +9224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>112</v>
       </c>
@@ -9035,7 +9232,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -9043,7 +9240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>114</v>
       </c>
@@ -9051,7 +9248,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -9059,7 +9256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>116</v>
       </c>
@@ -9067,7 +9264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -9075,7 +9272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>118</v>
       </c>
@@ -9083,7 +9280,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>119</v>
       </c>
@@ -9091,7 +9288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>120</v>
       </c>
@@ -9099,7 +9296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>121</v>
       </c>
@@ -9107,7 +9304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>122</v>
       </c>
@@ -9115,7 +9312,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>123</v>
       </c>
@@ -9123,7 +9320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -9131,7 +9328,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>125</v>
       </c>
@@ -9139,7 +9336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
@@ -9147,7 +9344,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>127</v>
       </c>
@@ -9155,7 +9352,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>128</v>
       </c>
@@ -9163,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>129</v>
       </c>
@@ -9171,7 +9368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>130</v>
       </c>
@@ -9179,7 +9376,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>131</v>
       </c>
@@ -9187,7 +9384,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>132</v>
       </c>
@@ -9195,7 +9392,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
@@ -9203,7 +9400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>134</v>
       </c>
@@ -9211,7 +9408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>135</v>
       </c>
@@ -9219,7 +9416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>136</v>
       </c>
@@ -9227,7 +9424,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>137</v>
       </c>
@@ -9235,7 +9432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>138</v>
       </c>
@@ -9243,7 +9440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>139</v>
       </c>
@@ -9251,7 +9448,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>140</v>
       </c>
@@ -9259,7 +9456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>141</v>
       </c>
@@ -9267,7 +9464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>142</v>
       </c>
@@ -9275,7 +9472,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>143</v>
       </c>
@@ -9283,7 +9480,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
@@ -9291,7 +9488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -9299,7 +9496,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
@@ -9307,7 +9504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
@@ -9315,7 +9512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -9327,4 +9524,3013 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAB67BD-EC34-4B1E-970E-29F79737AE49}">
+  <dimension ref="A1:H131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P122" sqref="P122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="1">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM(C2:E2)</f>
+        <v>24</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="1">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F66" si="0">SUM(C3:E3)</f>
+        <v>56</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="1">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="1">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="1">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="1">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="1">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="1">
+        <v>133</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f>SUM(C2:E26)</f>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="1">
+        <v>39</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="G27" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G28" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G30" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G31" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="1">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G32" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="1">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G33" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G34" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G35" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G36" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G37" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G38" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="1">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G39" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G40" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="1">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G41" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="1">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G42" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G43" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G44" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G45" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G46" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="1">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G47" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="1">
+        <v>23</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G48" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G50" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="1">
+        <v>17</v>
+      </c>
+      <c r="D51" s="1">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G51" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G52" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="1">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G53" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="1">
+        <v>271</v>
+      </c>
+      <c r="D54" s="1">
+        <v>38</v>
+      </c>
+      <c r="E54" s="1">
+        <v>15</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="G54" s="16">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <f>SUM(C27:E54)</f>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="1">
+        <v>19</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G55" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="1">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G56" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G57" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G58" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="1">
+        <v>58</v>
+      </c>
+      <c r="D59" s="1">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="G59" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="1">
+        <v>19</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G60" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="1">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G61" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="1">
+        <v>60</v>
+      </c>
+      <c r="D62" s="1">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="G62" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="1">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>6</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G63" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G64" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G65" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G66" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="1">
+        <v>143</v>
+      </c>
+      <c r="D67" s="1">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1">
+        <v>7</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F130" si="1">SUM(C67:E67)</f>
+        <v>158</v>
+      </c>
+      <c r="G67" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="1">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G68" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G69" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G70" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G71" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G72" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G73" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="1">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G74" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" s="1">
+        <v>22</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G75" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="1">
+        <v>30</v>
+      </c>
+      <c r="D76" s="1">
+        <v>7</v>
+      </c>
+      <c r="E76" s="1">
+        <v>6</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="G76" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="1">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G77" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" s="1">
+        <v>21</v>
+      </c>
+      <c r="D78" s="1">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="G78" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="1">
+        <v>15</v>
+      </c>
+      <c r="D79" s="1">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G79" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G81" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G82" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="1">
+        <v>12</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G83" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G84" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="1">
+        <v>24</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="G85" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G86" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" s="1">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G87" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G88" s="18">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <f>SUM(C55:E88)</f>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" s="1">
+        <v>41</v>
+      </c>
+      <c r="D89" s="1">
+        <v>15</v>
+      </c>
+      <c r="E89" s="1">
+        <v>10</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="G89" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C90" s="1">
+        <v>10</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3</v>
+      </c>
+      <c r="E90" s="1">
+        <v>4</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G90" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G91" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G92" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C93" s="1">
+        <v>26</v>
+      </c>
+      <c r="D93" s="1">
+        <v>8</v>
+      </c>
+      <c r="E93" s="1">
+        <v>9</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="G93" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" s="1">
+        <v>15</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2</v>
+      </c>
+      <c r="E94" s="1">
+        <v>6</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="G94" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G95" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C96" s="1">
+        <v>38</v>
+      </c>
+      <c r="D96" s="1">
+        <v>26</v>
+      </c>
+      <c r="E96" s="1">
+        <v>19</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="G96" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2</v>
+      </c>
+      <c r="E97" s="1">
+        <v>4</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G97" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C98" s="1">
+        <v>7</v>
+      </c>
+      <c r="D98" s="1">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1">
+        <v>3</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G98" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G99" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="1">
+        <v>10</v>
+      </c>
+      <c r="D100" s="1">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G100" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G101" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" s="1">
+        <v>59</v>
+      </c>
+      <c r="D103" s="1">
+        <v>13</v>
+      </c>
+      <c r="E103" s="1">
+        <v>10</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="G103" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G104" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C105" s="1">
+        <v>15</v>
+      </c>
+      <c r="D105" s="1">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1">
+        <v>6</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G105" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G106" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107" s="1">
+        <v>8</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G107" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C108" s="1">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G108" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C109" s="1">
+        <v>7</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G109" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C110" s="1">
+        <v>93</v>
+      </c>
+      <c r="D110" s="1">
+        <v>18</v>
+      </c>
+      <c r="E110" s="1">
+        <v>7</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="G110" s="21">
+        <v>4</v>
+      </c>
+      <c r="H110">
+        <f>SUM(F89:F110)</f>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C111" s="1">
+        <v>112</v>
+      </c>
+      <c r="D111" s="1">
+        <v>8</v>
+      </c>
+      <c r="E111" s="1">
+        <v>4</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="G111" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C112" s="1">
+        <v>12</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1">
+        <v>2</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G112" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G113" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C114" s="1">
+        <v>4</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G114" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G115" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C116" s="1">
+        <v>9</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G116" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G117" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G118" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G119" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G120" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G121" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G122" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C123" s="1">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G123" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G124" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G125" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C126" s="1">
+        <v>32</v>
+      </c>
+      <c r="D126" s="1">
+        <v>10</v>
+      </c>
+      <c r="E126" s="1">
+        <v>4</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="G126" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C127" s="1">
+        <v>4</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G127" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" s="1">
+        <v>127</v>
+      </c>
+      <c r="D128" s="1">
+        <v>13</v>
+      </c>
+      <c r="E128" s="1">
+        <v>7</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="G128" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" s="1">
+        <v>35</v>
+      </c>
+      <c r="D129" s="1">
+        <v>4</v>
+      </c>
+      <c r="E129" s="1">
+        <v>2</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="G129" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G130" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C131" s="1">
+        <v>7</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
+        <f t="shared" ref="F131" si="2">SUM(C131:E131)</f>
+        <v>9</v>
+      </c>
+      <c r="G131" s="22">
+        <v>5</v>
+      </c>
+      <c r="H131">
+        <f>SUM(F111:F131)</f>
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DATA/CANASTA/CANASTA_LISTADO.xlsx
+++ b/DATA/CANASTA/CANASTA_LISTADO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IPP GIT\IPP-2023\DATA\CANASTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OMAR LLAMBO\IPP\IPP-2023\DATA\CANASTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241BB6E1-525C-4FE8-92AE-8CD18F4AA5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ANEXO 001 " sheetId="6" r:id="rId1"/>
@@ -2022,7 +2021,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2149,7 +2148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2174,9 +2173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2189,10 +2185,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2485,7 +2485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G171"/>
   <sheetViews>
@@ -2494,24 +2494,24 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:G171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="103.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="103.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="6" width="5.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>483</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>481</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>315</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>316</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>317</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>318</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>319</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>320</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>321</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>322</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>323</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>324</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>325</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>326</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>327</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>328</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>329</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>330</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>331</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>332</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>333</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>334</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>335</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>336</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>337</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>338</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>339</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>340</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>341</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>342</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>343</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>344</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>345</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>346</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>347</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>348</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>349</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>350</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>351</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>352</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>353</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>354</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>355</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>356</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>357</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>358</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>359</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>360</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>361</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>362</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>363</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>364</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>365</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>366</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>367</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>368</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>369</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>370</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>371</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>372</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>373</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>374</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>375</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>376</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>377</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>378</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>379</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>380</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>381</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>382</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>383</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>384</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>385</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>386</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>387</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>388</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>389</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>390</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>391</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>392</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>393</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>394</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>395</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>396</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>397</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>398</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>399</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>400</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>401</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>402</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>403</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>404</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>405</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>406</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>407</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>408</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>409</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>410</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>411</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>412</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>413</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>414</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>415</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>416</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>417</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>418</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>419</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>420</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>421</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>422</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>423</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>424</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>425</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>426</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>427</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>428</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>429</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>430</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>431</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>432</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>433</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>434</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>435</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>436</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>437</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>438</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>439</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>440</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>441</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>442</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>443</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>444</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>445</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>446</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>447</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>448</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>449</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>450</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>451</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>452</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>453</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>454</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>455</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>456</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>457</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>458</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>459</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>461</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>462</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>463</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>464</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>465</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>466</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>467</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>468</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>469</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>470</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>471</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>472</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>473</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>474</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>475</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>476</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>477</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>478</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>479</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>480</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>5</v>
       </c>
@@ -6199,7 +6199,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G170" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A2:G170">
     <filterColumn colId="0">
       <filters>
         <filter val="C1010.11"/>
@@ -6344,356 +6344,356 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -6705,20 +6705,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="10"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>486</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>487</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>488</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>489</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>490</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>491</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>492</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>493</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>494</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>495</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>496</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>497</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>498</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>499</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>500</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>501</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>502</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>503</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>504</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>505</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>506</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>507</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>508</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>509</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>510</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>511</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>512</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>513</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>514</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>515</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>516</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>517</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>518</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>519</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>520</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>521</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>522</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>523</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>524</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>525</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>526</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>527</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>528</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>529</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>530</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>531</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>532</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>533</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>534</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>535</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>536</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>537</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>538</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>539</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>540</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>541</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>542</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>543</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>544</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>545</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>546</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>547</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>548</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>549</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>550</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>551</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>552</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>553</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>554</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>555</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>556</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>557</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>558</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>559</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>560</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>561</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>562</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>563</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>564</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>565</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
         <v>566</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>567</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>568</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>569</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>570</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>571</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>572</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>573</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>574</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>575</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
         <v>576</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
         <v>577</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
         <v>578</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
         <v>579</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
         <v>580</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
         <v>581</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>582</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>583</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>584</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>585</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>586</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
         <v>587</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>588</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
         <v>589</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>590</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
         <v>591</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
         <v>592</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
         <v>593</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
         <v>594</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>595</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
         <v>596</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
         <v>597</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
         <v>598</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>599</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
         <v>600</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
         <v>601</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
         <v>602</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
         <v>603</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
         <v>604</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
         <v>605</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
         <v>606</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
         <v>607</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>608</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
         <v>609</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
         <v>610</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
         <v>611</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
         <v>612</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>613</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
         <v>614</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
         <v>615</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
         <v>616</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
         <v>617</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
         <v>618</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
         <v>619</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
         <v>620</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
         <v>621</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
         <v>622</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
         <v>623</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
         <v>624</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
         <v>625</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
         <v>626</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
         <v>627</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
         <v>628</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>G</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
         <v>629</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
         <v>630</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
         <v>631</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>632</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>I</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
         <v>633</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>I</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
         <v>634</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>J</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>635</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>J</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
         <v>636</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>J</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
         <v>637</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>J</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>638</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>K</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
         <v>639</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>K</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
         <v>640</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>K</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
         <v>641</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>K</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
         <v>642</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>K</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
         <v>643</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
         <v>644</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
         <v>645</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
         <v>646</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
         <v>647</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
         <v>648</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
         <v>649</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
         <v>650</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
         <v>651</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
         <v>652</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>P</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
         <v>653</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>P</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="11" t="s">
         <v>654</v>
       </c>
@@ -8919,16 +8919,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>90</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>94</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>95</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>103</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>105</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>106</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>108</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>109</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>110</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>112</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>114</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>116</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>118</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>119</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>120</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>121</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>122</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>123</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>125</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>127</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>128</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>129</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>130</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>131</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>132</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>134</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>135</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>136</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>137</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>138</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>139</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>140</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>141</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>142</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>143</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -9527,17 +9527,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAB67BD-EC34-4B1E-970E-29F79737AE49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P122" sqref="P122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>658</v>
       </c>
@@ -9556,12 +9556,12 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>497</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9580,12 +9580,12 @@
         <f>SUM(C2:E2)</f>
         <v>24</v>
       </c>
-      <c r="G2" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>498</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9604,12 +9604,12 @@
         <f t="shared" ref="F3:F66" si="0">SUM(C3:E3)</f>
         <v>56</v>
       </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>499</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -9628,12 +9628,12 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>500</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -9652,12 +9652,12 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>501</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -9676,12 +9676,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G6" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>502</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -9700,12 +9700,12 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>503</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -9724,12 +9724,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>504</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -9748,12 +9748,12 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>505</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -9768,12 +9768,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>506</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -9792,12 +9792,12 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G11" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>507</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -9816,12 +9816,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>508</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -9838,12 +9838,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G13" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>509</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -9860,12 +9860,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>510</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -9884,12 +9884,12 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>511</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -9906,12 +9906,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G16" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>512</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -9926,12 +9926,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>513</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -9950,12 +9950,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>514</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -9968,12 +9968,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>515</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -9992,12 +9992,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G20" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>516</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -10016,12 +10016,12 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="G21" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>517</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -10040,12 +10040,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G22" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>518</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -10064,12 +10064,12 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G23" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>519</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -10088,12 +10088,12 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="G24" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>520</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -10112,12 +10112,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G25" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>521</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -10136,7 +10136,7 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>1</v>
       </c>
       <c r="H26">
@@ -10144,8 +10144,8 @@
         <v>674</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>522</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -10164,12 +10164,12 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="G27" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="G27" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>523</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -10188,12 +10188,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G28" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="G28" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>524</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -10208,12 +10208,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G29" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="G29" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>525</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -10230,12 +10230,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="G30" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>526</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -10252,12 +10252,12 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G31" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="G31" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>527</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -10276,12 +10276,12 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="G32" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="G32" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>528</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -10300,12 +10300,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G33" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="G33" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>529</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -10324,12 +10324,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G34" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="G34" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
         <v>530</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -10348,12 +10348,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G35" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="G35" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
         <v>531</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -10372,12 +10372,12 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G36" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="G36" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
         <v>532</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -10396,12 +10396,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G37" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="G37" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
         <v>533</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -10420,12 +10420,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G38" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="G38" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
         <v>534</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -10444,12 +10444,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G39" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="G39" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
         <v>535</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -10466,12 +10466,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G40" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="G40" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
         <v>536</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -10490,12 +10490,12 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="G41" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="G41" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
         <v>537</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -10514,12 +10514,12 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="G42" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="G42" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
         <v>538</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -10536,12 +10536,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G43" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="G43" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
         <v>539</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -10558,12 +10558,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G44" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="G44" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
         <v>540</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -10582,12 +10582,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G45" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="G45" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
         <v>541</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -10602,12 +10602,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G46" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="G46" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
         <v>542</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -10624,12 +10624,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G47" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="G47" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
         <v>543</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -10648,12 +10648,12 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G48" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="G48" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
         <v>544</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -10666,12 +10666,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="G49" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
         <v>545</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -10690,15 +10690,15 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G50" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="300" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="G50" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="23" t="s">
         <v>206</v>
       </c>
       <c r="C51" s="1">
@@ -10714,12 +10714,12 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G51" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+      <c r="G51" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
         <v>547</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -10738,12 +10738,12 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="G52" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="G52" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
         <v>548</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -10760,12 +10760,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G53" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="G53" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
         <v>549</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -10784,7 +10784,7 @@
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="15">
         <v>2</v>
       </c>
       <c r="H54">
@@ -10792,8 +10792,8 @@
         <v>782</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
         <v>550</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -10812,12 +10812,12 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="G55" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+      <c r="G55" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
         <v>551</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -10836,12 +10836,12 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G56" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="G56" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
         <v>552</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -10858,12 +10858,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G57" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="G57" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
         <v>553</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -10878,12 +10878,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G58" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="G58" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
         <v>554</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -10902,12 +10902,12 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="G59" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
+      <c r="G59" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
         <v>555</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -10926,12 +10926,12 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G60" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="G60" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
         <v>556</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -10950,12 +10950,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G61" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
+      <c r="G61" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
         <v>557</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -10974,12 +10974,12 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="G62" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+      <c r="G62" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
         <v>558</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -10998,12 +10998,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G63" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+      <c r="G63" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
         <v>559</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -11020,12 +11020,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G64" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="G64" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
         <v>560</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -11042,12 +11042,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G65" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+      <c r="G65" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
         <v>561</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -11066,12 +11066,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G66" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="G66" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="18" t="s">
         <v>562</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -11090,12 +11090,12 @@
         <f t="shared" ref="F67:F130" si="1">SUM(C67:E67)</f>
         <v>158</v>
       </c>
-      <c r="G67" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="G67" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
         <v>563</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -11114,12 +11114,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G68" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="G68" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="18" t="s">
         <v>564</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -11136,12 +11136,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G69" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+      <c r="G69" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="18" t="s">
         <v>565</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -11156,12 +11156,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G70" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+      <c r="G70" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="18" t="s">
         <v>566</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -11176,12 +11176,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G71" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="G71" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
         <v>567</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -11196,12 +11196,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G72" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+      <c r="G72" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="18" t="s">
         <v>568</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -11218,12 +11218,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G73" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+      <c r="G73" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
         <v>569</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -11242,12 +11242,12 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G74" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+      <c r="G74" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="18" t="s">
         <v>570</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -11266,12 +11266,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G75" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
+      <c r="G75" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="18" t="s">
         <v>571</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -11290,12 +11290,12 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="G76" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+      <c r="G76" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="18" t="s">
         <v>572</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -11314,12 +11314,12 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G77" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="G77" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="18" t="s">
         <v>573</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -11338,12 +11338,12 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G78" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
+      <c r="G78" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="18" t="s">
         <v>574</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -11362,12 +11362,12 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G79" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
+      <c r="G79" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="18" t="s">
         <v>575</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -11380,12 +11380,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G80" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
+      <c r="G80" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="18" t="s">
         <v>576</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -11400,12 +11400,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G81" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
+      <c r="G81" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="18" t="s">
         <v>577</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -11420,12 +11420,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G82" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
+      <c r="G82" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="18" t="s">
         <v>578</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -11444,12 +11444,12 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G83" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
+      <c r="G83" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="18" t="s">
         <v>579</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -11464,12 +11464,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G84" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
+      <c r="G84" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="18" t="s">
         <v>580</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -11488,12 +11488,12 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="G85" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
+      <c r="G85" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="18" t="s">
         <v>581</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -11510,12 +11510,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G86" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
+      <c r="G86" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="18" t="s">
         <v>582</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -11534,12 +11534,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G87" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="G87" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="18" t="s">
         <v>583</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -11558,7 +11558,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="17">
         <v>3</v>
       </c>
       <c r="H88">
@@ -11566,8 +11566,8 @@
         <v>657</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="19" t="s">
         <v>584</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -11586,11 +11586,11 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="G89" s="21">
+      <c r="G89" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>585</v>
       </c>
@@ -11610,11 +11610,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G90" s="21">
+      <c r="G90" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>586</v>
       </c>
@@ -11632,11 +11632,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G91" s="21">
+      <c r="G91" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>587</v>
       </c>
@@ -11652,11 +11652,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G92" s="21">
+      <c r="G92" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>588</v>
       </c>
@@ -11676,11 +11676,11 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="G93" s="21">
+      <c r="G93" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>589</v>
       </c>
@@ -11700,11 +11700,11 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="G94" s="21">
+      <c r="G94" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>590</v>
       </c>
@@ -11720,11 +11720,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G95" s="21">
+      <c r="G95" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>591</v>
       </c>
@@ -11744,11 +11744,11 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="G96" s="21">
+      <c r="G96" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>592</v>
       </c>
@@ -11768,11 +11768,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G97" s="21">
+      <c r="G97" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>593</v>
       </c>
@@ -11792,11 +11792,11 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G98" s="21">
+      <c r="G98" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>594</v>
       </c>
@@ -11812,11 +11812,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G99" s="21">
+      <c r="G99" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>595</v>
       </c>
@@ -11836,11 +11836,11 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G100" s="21">
+      <c r="G100" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>596</v>
       </c>
@@ -11856,11 +11856,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G101" s="21">
+      <c r="G101" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>597</v>
       </c>
@@ -11874,11 +11874,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G102" s="21">
+      <c r="G102" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>598</v>
       </c>
@@ -11898,11 +11898,11 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="G103" s="21">
+      <c r="G103" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>599</v>
       </c>
@@ -11918,11 +11918,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G104" s="21">
+      <c r="G104" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>600</v>
       </c>
@@ -11942,11 +11942,11 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="G105" s="21">
+      <c r="G105" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>601</v>
       </c>
@@ -11966,11 +11966,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G106" s="21">
+      <c r="G106" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>602</v>
       </c>
@@ -11986,11 +11986,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G107" s="21">
+      <c r="G107" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>603</v>
       </c>
@@ -12008,11 +12008,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G108" s="21">
+      <c r="G108" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>604</v>
       </c>
@@ -12028,11 +12028,11 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G109" s="21">
+      <c r="G109" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>605</v>
       </c>
@@ -12052,7 +12052,7 @@
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="G110" s="21">
+      <c r="G110" s="20">
         <v>4</v>
       </c>
       <c r="H110">
@@ -12060,7 +12060,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>606</v>
       </c>
@@ -12080,11 +12080,11 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="G111" s="22">
+      <c r="G111" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>607</v>
       </c>
@@ -12104,11 +12104,11 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G112" s="22">
+      <c r="G112" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>608</v>
       </c>
@@ -12126,11 +12126,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G113" s="22">
+      <c r="G113" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>609</v>
       </c>
@@ -12150,11 +12150,11 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G114" s="22">
+      <c r="G114" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>610</v>
       </c>
@@ -12170,11 +12170,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G115" s="22">
+      <c r="G115" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>611</v>
       </c>
@@ -12190,11 +12190,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G116" s="22">
+      <c r="G116" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>612</v>
       </c>
@@ -12212,11 +12212,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G117" s="22">
+      <c r="G117" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>613</v>
       </c>
@@ -12236,11 +12236,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G118" s="22">
+      <c r="G118" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>614</v>
       </c>
@@ -12256,11 +12256,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G119" s="22">
+      <c r="G119" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>615</v>
       </c>
@@ -12276,11 +12276,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G120" s="22">
+      <c r="G120" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>616</v>
       </c>
@@ -12296,11 +12296,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G121" s="22">
+      <c r="G121" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>617</v>
       </c>
@@ -12316,11 +12316,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G122" s="22">
+      <c r="G122" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>618</v>
       </c>
@@ -12336,11 +12336,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G123" s="22">
+      <c r="G123" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>619</v>
       </c>
@@ -12358,11 +12358,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G124" s="22">
+      <c r="G124" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>620</v>
       </c>
@@ -12380,11 +12380,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G125" s="22">
+      <c r="G125" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>621</v>
       </c>
@@ -12404,11 +12404,11 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="G126" s="22">
+      <c r="G126" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>622</v>
       </c>
@@ -12428,11 +12428,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G127" s="22">
+      <c r="G127" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>623</v>
       </c>
@@ -12452,11 +12452,11 @@
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="G128" s="22">
+      <c r="G128" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>624</v>
       </c>
@@ -12476,11 +12476,11 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="G129" s="22">
+      <c r="G129" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>625</v>
       </c>
@@ -12498,11 +12498,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G130" s="22">
+      <c r="G130" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>626</v>
       </c>
@@ -12522,7 +12522,7 @@
         <f t="shared" ref="F131" si="2">SUM(C131:E131)</f>
         <v>9</v>
       </c>
-      <c r="G131" s="22">
+      <c r="G131" s="21">
         <v>5</v>
       </c>
       <c r="H131">

--- a/DATA/CANASTA/CANASTA_LISTADO.xlsx
+++ b/DATA/CANASTA/CANASTA_LISTADO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ANEXO 001 " sheetId="6" r:id="rId1"/>
@@ -2148,7 +2148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2185,10 +2185,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2504,12 +2507,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -6708,8 +6711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6730,7 +6733,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="24" t="s">
         <v>487</v>
       </c>
       <c r="B2" s="11">
@@ -6743,7 +6746,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="24" t="s">
         <v>488</v>
       </c>
       <c r="B3" s="11">
@@ -6795,7 +6798,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="24" t="s">
         <v>492</v>
       </c>
       <c r="B7" s="11">
@@ -6808,7 +6811,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="24" t="s">
         <v>493</v>
       </c>
       <c r="B8" s="11">
@@ -6860,7 +6863,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="24" t="s">
         <v>497</v>
       </c>
       <c r="B12" s="11">
@@ -6873,7 +6876,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="24" t="s">
         <v>498</v>
       </c>
       <c r="B13" s="11">
@@ -6886,7 +6889,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="24" t="s">
         <v>499</v>
       </c>
       <c r="B14" s="11">
@@ -6899,7 +6902,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="24" t="s">
         <v>500</v>
       </c>
       <c r="B15" s="11">
@@ -6912,7 +6915,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="24" t="s">
         <v>501</v>
       </c>
       <c r="B16" s="11">
@@ -6925,7 +6928,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="24" t="s">
         <v>502</v>
       </c>
       <c r="B17" s="11">
@@ -8922,7 +8925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -9530,9 +9533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10698,7 +10701,7 @@
       <c r="A51" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
         <v>206</v>
       </c>
       <c r="C51" s="1">
